--- a/clients_export_2026-02-20.xlsx
+++ b/clients_export_2026-02-20.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
   <si>
     <t xml:space="preserve">Nom</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t xml:space="preserve">Mapathe@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">622445563</t>
   </si>
   <si>
     <t xml:space="preserve">Dakar</t>
@@ -513,7 +516,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -827,14 +830,14 @@
       <c r="C14" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>772202532</v>
+      <c r="D14" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
